--- a/FPR2110-NGFW-K9.xlsx
+++ b/FPR2110-NGFW-K9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\speccc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73468FC-DD24-4459-9760-0431C1F9E641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8319FB1-4E38-4802-892C-9DCE2D3BCCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="14595" windowHeight="8746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPR2110-NGFW-K9" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Nguồn cung cấp</t>
   </si>
@@ -140,30 +140,6 @@
   </si>
   <si>
     <t>950 Mbps</t>
-  </si>
-  <si>
-    <t>3 Gbps</t>
-  </si>
-  <si>
-    <t>1.5 Gbps</t>
-  </si>
-  <si>
-    <t>Concurrent firewall connections</t>
-  </si>
-  <si>
-    <t>New connections per second</t>
-  </si>
-  <si>
-    <t>500 Mbps</t>
-  </si>
-  <si>
-    <t>IPsec VPN throughput (450B UDP L2L test)</t>
-  </si>
-  <si>
-    <t>Stateful inspection firewall throughput (multiprotocol)</t>
-  </si>
-  <si>
-    <t>Stateful inspection firewall throughput</t>
   </si>
   <si>
     <t>12 x 10M/100M/ 1GBASE-T Ethernet interfaces (RJ- 45)
@@ -15040,17 +15016,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.86328125" customWidth="1"/>
+    <col min="1" max="1" width="46.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -15058,7 +15036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -15066,7 +15044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -15074,7 +15052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -15082,7 +15060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -15090,7 +15068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -15098,7 +15076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -15106,7 +15084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -15114,7 +15092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -15122,107 +15100,59 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="91.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
+    </row>
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>0</v>
       </c>
-      <c r="B13" s="5">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/FPR2110-NGFW-K9.xlsx
+++ b/FPR2110-NGFW-K9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8319FB1-4E38-4802-892C-9DCE2D3BCCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D02915-3E1E-476F-9991-2A04DA0A005D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,12 +152,12 @@
     <t>1x 100 GB</t>
   </si>
   <si>
-    <t>Cấu hình, ghi nhật ký, giám sát và báo cáo tập trung được thực hiện bởi Management Center hoặc trên đám mây với Cisco Defense Orchestrator</t>
-  </si>
-  <si>
     <t>Nguồn đơn tích hợp 250W AC power supply.
 100 to 240V AC
 50 to 60 Hz</t>
+  </si>
+  <si>
+    <t>Web UI, CLI</t>
   </si>
 </sst>
 </file>
@@ -15018,9 +15018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15132,12 +15130,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15145,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
